--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_22-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_22-44.xlsx
@@ -182,7 +182,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:2</t>
   </si>
   <si>
     <t>DOLPHIN 25 MG 10 SUPP.</t>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>-1:0</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -1952,7 +1955,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -4104,13 +4107,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4122,7 +4125,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4130,17 +4133,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4156,17 +4159,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>30</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4182,17 +4185,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4208,13 +4211,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4234,17 +4237,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4260,17 +4263,17 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1">
@@ -4292,7 +4295,7 @@
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4312,13 +4315,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4338,13 +4341,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4370,11 +4373,11 @@
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4390,13 +4393,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4416,51 +4419,77 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" ht="26.25" customHeight="1">
-      <c r="K132" s="10">
-        <v>6855.3100000000004</v>
-      </c>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="6">
+        <v>129</v>
+      </c>
+      <c t="s" r="B132" s="7">
+        <v>170</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c t="s" r="H132" s="8">
         <v>171</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c t="s" r="F133" s="12">
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="9">
+        <v>20</v>
+      </c>
+      <c r="M132" s="9"/>
+      <c t="s" r="N132" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" ht="25.5" customHeight="1">
+      <c r="K133" s="10">
+        <v>6896.3100000000004</v>
+      </c>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+    </row>
+    <row r="134" ht="17.25" customHeight="1">
+      <c t="s" r="A134" s="11">
         <v>172</v>
       </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
-      <c t="s" r="I133" s="14">
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c t="s" r="F134" s="12">
         <v>173</v>
       </c>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="13"/>
+      <c t="s" r="I134" s="14">
+        <v>174</v>
+      </c>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="395">
+  <mergeCells count="398">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4852,10 +4881,13 @@
     <mergeCell ref="B131:G131"/>
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
-    <mergeCell ref="K132:N132"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="K133:N133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="I134:N134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
